--- a/project-plan-files/Root9_WBS.xlsx
+++ b/project-plan-files/Root9_WBS.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="238">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -751,6 +751,9 @@
   </si>
   <si>
     <t>In class presenation</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
 </sst>
 </file>
@@ -14781,9 +14784,9 @@
   </sheetPr>
   <dimension ref="B1:S129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14992,7 +14995,9 @@
       <c r="L64" s="10">
         <v>0.5</v>
       </c>
-      <c r="M64" s="10"/>
+      <c r="M64" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O64" s="10" t="s">
         <v>22</v>
       </c>
@@ -15005,7 +15010,9 @@
       <c r="R64" s="10">
         <v>2</v>
       </c>
-      <c r="S64" s="10"/>
+      <c r="S64" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="65" spans="3:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="10" t="s">
@@ -15035,7 +15042,9 @@
       <c r="L65" s="10">
         <v>0.5</v>
       </c>
-      <c r="M65" s="10"/>
+      <c r="M65" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O65" s="10" t="s">
         <v>29</v>
       </c>
@@ -15048,7 +15057,9 @@
       <c r="R65" s="10">
         <v>4</v>
       </c>
-      <c r="S65" s="10"/>
+      <c r="S65" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="66" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C66" s="10" t="s">
@@ -15078,7 +15089,9 @@
       <c r="L66" s="10">
         <v>0.5</v>
       </c>
-      <c r="M66" s="10"/>
+      <c r="M66" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O66" s="10" t="s">
         <v>35</v>
       </c>
@@ -15091,7 +15104,9 @@
       <c r="R66" s="10">
         <v>1</v>
       </c>
-      <c r="S66" s="10"/>
+      <c r="S66" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="67" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C67" s="18" t="s">
@@ -15136,7 +15151,9 @@
       <c r="R67" s="10">
         <v>1</v>
       </c>
-      <c r="S67" s="10"/>
+      <c r="S67" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="68" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C68" s="8">
@@ -15201,7 +15218,9 @@
       <c r="L69" s="10">
         <v>0.5</v>
       </c>
-      <c r="M69" s="10"/>
+      <c r="M69" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O69" s="8">
         <v>3.2</v>
       </c>
@@ -15240,7 +15259,9 @@
       <c r="L70" s="10">
         <v>1</v>
       </c>
-      <c r="M70" s="10"/>
+      <c r="M70" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O70" s="10" t="s">
         <v>56</v>
       </c>
@@ -15253,7 +15274,9 @@
       <c r="R70" s="10">
         <v>1</v>
       </c>
-      <c r="S70" s="10"/>
+      <c r="S70" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="71" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C71" s="10" t="s">
@@ -15283,7 +15306,9 @@
       <c r="L71" s="10">
         <v>1</v>
       </c>
-      <c r="M71" s="10"/>
+      <c r="M71" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O71" s="10" t="s">
         <v>62</v>
       </c>
@@ -15296,7 +15321,9 @@
       <c r="R71" s="10">
         <v>2</v>
       </c>
-      <c r="S71" s="10"/>
+      <c r="S71" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="72" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C72" s="10" t="s">
@@ -15326,7 +15353,9 @@
       <c r="L72" s="10">
         <v>0.5</v>
       </c>
-      <c r="M72" s="10"/>
+      <c r="M72" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O72" s="10" t="s">
         <v>69</v>
       </c>
@@ -15339,7 +15368,9 @@
       <c r="R72" s="10">
         <v>2</v>
       </c>
-      <c r="S72" s="10"/>
+      <c r="S72" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="73" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C73" s="10" t="s">
@@ -15369,7 +15400,9 @@
       <c r="L73" s="10">
         <v>1</v>
       </c>
-      <c r="M73" s="10"/>
+      <c r="M73" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O73" s="10" t="s">
         <v>75</v>
       </c>
@@ -15382,7 +15415,9 @@
       <c r="R73" s="10">
         <v>4</v>
       </c>
-      <c r="S73" s="10"/>
+      <c r="S73" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="74" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C74" s="10" t="s">
@@ -15412,7 +15447,9 @@
       <c r="L74" s="10">
         <v>0.5</v>
       </c>
-      <c r="M74" s="10"/>
+      <c r="M74" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O74" s="10" t="s">
         <v>82</v>
       </c>
@@ -15423,7 +15460,9 @@
         <v>26</v>
       </c>
       <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
+      <c r="S74" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="75" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C75" s="10" t="s">
@@ -15453,7 +15492,9 @@
       <c r="L75" s="10">
         <v>1.5</v>
       </c>
-      <c r="M75" s="10"/>
+      <c r="M75" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O75" s="18" t="s">
         <v>88</v>
       </c>
@@ -15498,7 +15539,9 @@
       <c r="L76" s="10">
         <v>0.5</v>
       </c>
-      <c r="M76" s="10"/>
+      <c r="M76" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O76" s="8">
         <v>3.3</v>
       </c>
@@ -15531,7 +15574,9 @@
       <c r="L77" s="10">
         <v>3.5</v>
       </c>
-      <c r="M77" s="10"/>
+      <c r="M77" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O77" s="10" t="s">
         <v>97</v>
       </c>
@@ -15544,7 +15589,9 @@
       <c r="R77" s="10">
         <v>3</v>
       </c>
-      <c r="S77" s="10"/>
+      <c r="S77" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="78" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C78" s="10" t="s">
@@ -15589,7 +15636,9 @@
       <c r="R78" s="10">
         <v>2</v>
       </c>
-      <c r="S78" s="10"/>
+      <c r="S78" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="79" spans="3:19" ht="39.6" x14ac:dyDescent="0.25">
       <c r="C79" s="10" t="s">
@@ -15624,7 +15673,9 @@
       <c r="R79" s="10">
         <v>2</v>
       </c>
-      <c r="S79" s="10"/>
+      <c r="S79" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="80" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C80" s="10" t="s">
@@ -15654,7 +15705,9 @@
       <c r="L80" s="10">
         <v>0.5</v>
       </c>
-      <c r="M80" s="10"/>
+      <c r="M80" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O80" s="10" t="s">
         <v>112</v>
       </c>
@@ -15667,7 +15720,9 @@
       <c r="R80" s="10">
         <v>1</v>
       </c>
-      <c r="S80" s="10"/>
+      <c r="S80" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="81" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C81" s="10" t="s">
@@ -15693,7 +15748,9 @@
       <c r="L81" s="10">
         <v>0.5</v>
       </c>
-      <c r="M81" s="10"/>
+      <c r="M81" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O81" s="10" t="s">
         <v>117</v>
       </c>
@@ -15706,7 +15763,9 @@
       <c r="R81" s="10">
         <v>1</v>
       </c>
-      <c r="S81" s="10"/>
+      <c r="S81" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="82" spans="3:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="10" t="s">
@@ -15736,7 +15795,9 @@
       <c r="L82" s="10">
         <v>0.5</v>
       </c>
-      <c r="M82" s="10"/>
+      <c r="M82" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O82" s="18" t="s">
         <v>123</v>
       </c>
@@ -15781,7 +15842,9 @@
       <c r="L83" s="10">
         <v>4</v>
       </c>
-      <c r="M83" s="10"/>
+      <c r="M83" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="O83" s="15">
         <v>3.4</v>
       </c>
@@ -15826,7 +15889,9 @@
       <c r="L84" s="10">
         <v>2.5</v>
       </c>
-      <c r="M84" s="10"/>
+      <c r="M84" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="85" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C85" s="10" t="s">
@@ -15852,7 +15917,9 @@
       <c r="L85" s="10">
         <v>1</v>
       </c>
-      <c r="M85" s="10"/>
+      <c r="M85" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="86" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C86" s="10" t="s">
@@ -15882,7 +15949,9 @@
       <c r="L86" s="10">
         <v>1</v>
       </c>
-      <c r="M86" s="10"/>
+      <c r="M86" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="87" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C87" s="10" t="s">
@@ -15912,7 +15981,9 @@
       <c r="L87" s="10">
         <v>1.5</v>
       </c>
-      <c r="M87" s="10"/>
+      <c r="M87" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="88" spans="3:19" ht="25.2" x14ac:dyDescent="0.25">
       <c r="C88" s="10" t="s">
@@ -16000,7 +16071,9 @@
       <c r="L90" s="10">
         <v>3.5</v>
       </c>
-      <c r="M90" s="10"/>
+      <c r="M90" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="91" spans="3:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C91" s="10" t="s">
@@ -16024,7 +16097,9 @@
       <c r="L91" s="10">
         <v>3.5</v>
       </c>
-      <c r="M91" s="10"/>
+      <c r="M91" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="92" spans="3:19" ht="25.2" x14ac:dyDescent="0.25">
       <c r="C92" s="10" t="s">
@@ -16112,7 +16187,9 @@
       <c r="L94" s="10">
         <v>2</v>
       </c>
-      <c r="M94" s="10"/>
+      <c r="M94" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="95" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C95" s="10" t="s">
@@ -16142,7 +16219,9 @@
       <c r="L95" s="10">
         <v>2</v>
       </c>
-      <c r="M95" s="10"/>
+      <c r="M95" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="96" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C96" s="10" t="s">
@@ -16168,7 +16247,9 @@
       <c r="L96" s="10">
         <v>1</v>
       </c>
-      <c r="M96" s="10"/>
+      <c r="M96" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="97" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C97" s="10" t="s">
@@ -16256,7 +16337,9 @@
       <c r="L99" s="10">
         <v>3</v>
       </c>
-      <c r="M99" s="10"/>
+      <c r="M99" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="100" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C100" s="10" t="s">
@@ -16286,7 +16369,9 @@
       <c r="L100" s="10">
         <v>7</v>
       </c>
-      <c r="M100" s="10"/>
+      <c r="M100" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="101" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C101" s="10" t="s">
@@ -16316,7 +16401,9 @@
       <c r="L101" s="10">
         <v>3</v>
       </c>
-      <c r="M101" s="10"/>
+      <c r="M101" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="102" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C102" s="18" t="s">
@@ -16346,7 +16433,9 @@
       <c r="L102" s="10">
         <v>5</v>
       </c>
-      <c r="M102" s="10"/>
+      <c r="M102" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="103" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C103" s="8">
@@ -16428,7 +16517,9 @@
       <c r="L105" s="10">
         <v>1</v>
       </c>
-      <c r="M105" s="10"/>
+      <c r="M105" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="106" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C106" s="10" t="s">
@@ -16458,7 +16549,9 @@
       <c r="L106" s="10">
         <v>4</v>
       </c>
-      <c r="M106" s="10"/>
+      <c r="M106" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="107" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C107" s="10" t="s">
@@ -16488,7 +16581,9 @@
       <c r="L107" s="10">
         <v>2</v>
       </c>
-      <c r="M107" s="10"/>
+      <c r="M107" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="108" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C108" s="10" t="s">
@@ -16514,7 +16609,9 @@
       <c r="L108" s="10">
         <v>0.5</v>
       </c>
-      <c r="M108" s="10"/>
+      <c r="M108" s="10" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="109" spans="3:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="18" t="s">
